--- a/handrail.xlsx
+++ b/handrail.xlsx
@@ -1,128 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
-</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -408,19 +283,3097 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="300" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="300" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="300" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="300" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="300" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="300" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="300" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="300" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="300" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="300" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="300" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="300" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="300" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="300" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="300" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="300" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="300" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="300" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="300" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="300" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="300" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="300" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="300" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="300" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="300" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="300" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="300" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="300" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="300" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="300" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="300" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="300" customHeight="1">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="300" customHeight="1">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="300" customHeight="1">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="300" customHeight="1">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="300" customHeight="1">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="300" customHeight="1">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="300" customHeight="1">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="300" customHeight="1">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="300" customHeight="1">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="300" customHeight="1">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="300" customHeight="1">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="300" customHeight="1">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="300" customHeight="1">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="300" customHeight="1">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="300" customHeight="1">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="300" customHeight="1">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="300" customHeight="1">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="300" customHeight="1">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="300" customHeight="1">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="300" customHeight="1">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="300" customHeight="1">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="300" customHeight="1">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="300" customHeight="1">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="300" customHeight="1">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="300" customHeight="1">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="300" customHeight="1">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="300" customHeight="1">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="300" customHeight="1">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="300" customHeight="1">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="300" customHeight="1">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="300" customHeight="1">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="300" customHeight="1">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="300" customHeight="1">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="300" customHeight="1">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="300" customHeight="1">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="300" customHeight="1">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="300" customHeight="1">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="300" customHeight="1">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="300" customHeight="1">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="300" customHeight="1">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="300" customHeight="1">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="300" customHeight="1">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="300" customHeight="1">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="300" customHeight="1">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="300" customHeight="1">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="300" customHeight="1">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="300" customHeight="1">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="300" customHeight="1">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="300" customHeight="1">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="300" customHeight="1">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="300" customHeight="1">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="300" customHeight="1">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="300" customHeight="1">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="300" customHeight="1">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="300" customHeight="1">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="300" customHeight="1">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="300" customHeight="1">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="300" customHeight="1">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="300" customHeight="1">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="300" customHeight="1">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="300" customHeight="1">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="300" customHeight="1">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="300" customHeight="1">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="300" customHeight="1">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="300" customHeight="1">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="300" customHeight="1">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="300" customHeight="1">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="300" customHeight="1">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="300" customHeight="1">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="300" customHeight="1">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="300" customHeight="1">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="300" customHeight="1">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="300" customHeight="1">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="300" customHeight="1">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="300" customHeight="1">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="300" customHeight="1">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="300" customHeight="1">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" ht="300" customHeight="1">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" ht="300" customHeight="1">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" ht="300" customHeight="1">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="300" customHeight="1">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" ht="300" customHeight="1">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" ht="300" customHeight="1">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="300" customHeight="1">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="300" customHeight="1">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="300" customHeight="1">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="300" customHeight="1">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="300" customHeight="1">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="300" customHeight="1">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" ht="300" customHeight="1">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" ht="300" customHeight="1">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="300" customHeight="1">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="300" customHeight="1">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="300" customHeight="1">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="300" customHeight="1">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="300" customHeight="1">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="300" customHeight="1">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="300" customHeight="1">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="300" customHeight="1">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" ht="300" customHeight="1">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="300" customHeight="1">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="300" customHeight="1">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" ht="300" customHeight="1">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="300" customHeight="1">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="300" customHeight="1">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="300" customHeight="1">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="300" customHeight="1">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" ht="300" customHeight="1">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" ht="300" customHeight="1">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" ht="300" customHeight="1">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="300" customHeight="1">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" ht="300" customHeight="1">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="300" customHeight="1">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="300" customHeight="1">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" ht="300" customHeight="1">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="300" customHeight="1">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="300" customHeight="1">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="300" customHeight="1">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>cell phone</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="300" customHeight="1">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="300" customHeight="1">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="300" customHeight="1">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="300" customHeight="1">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="300" customHeight="1">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="300" customHeight="1">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="300" customHeight="1">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" ht="300" customHeight="1">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="300" customHeight="1">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" ht="300" customHeight="1">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" ht="300" customHeight="1">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="161" ht="300" customHeight="1">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="162" ht="300" customHeight="1">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="163" ht="300" customHeight="1">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="164" ht="300" customHeight="1">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" ht="300" customHeight="1">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" ht="300" customHeight="1">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" ht="300" customHeight="1">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" ht="300" customHeight="1">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" ht="300" customHeight="1">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" ht="300" customHeight="1">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" ht="300" customHeight="1">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="172" ht="300" customHeight="1">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="173" ht="300" customHeight="1">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" ht="300" customHeight="1">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="300" customHeight="1">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="176" ht="300" customHeight="1">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" ht="300" customHeight="1">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="300" customHeight="1">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" ht="300" customHeight="1">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="300" customHeight="1">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" ht="300" customHeight="1">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" ht="300" customHeight="1">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="300" customHeight="1">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="300" customHeight="1">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="300" customHeight="1">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="300" customHeight="1">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" ht="300" customHeight="1">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="300" customHeight="1">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="300" customHeight="1">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" ht="300" customHeight="1">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" ht="300" customHeight="1">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="192" ht="300" customHeight="1">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" ht="300" customHeight="1">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="194" ht="300" customHeight="1">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" ht="300" customHeight="1">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" ht="300" customHeight="1">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="197" ht="300" customHeight="1">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="198" ht="300" customHeight="1">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="199" ht="300" customHeight="1">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="200" ht="300" customHeight="1">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" ht="300" customHeight="1">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="202" ht="300" customHeight="1">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="203" ht="300" customHeight="1">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="204" ht="300" customHeight="1">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="205" ht="300" customHeight="1">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" ht="300" customHeight="1">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="207" ht="300" customHeight="1">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="208" ht="300" customHeight="1">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="209" ht="300" customHeight="1">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="210" ht="300" customHeight="1">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="211" ht="300" customHeight="1">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="212" ht="300" customHeight="1">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="213" ht="300" customHeight="1">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="214" ht="300" customHeight="1">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="215" ht="300" customHeight="1">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="216" ht="300" customHeight="1">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="217" ht="300" customHeight="1">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="218" ht="300" customHeight="1">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="219" ht="300" customHeight="1">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="220" ht="300" customHeight="1">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="221" ht="300" customHeight="1">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="222" ht="300" customHeight="1">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="223" ht="300" customHeight="1">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="224" ht="300" customHeight="1">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="225" ht="300" customHeight="1">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="226" ht="300" customHeight="1">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="227" ht="300" customHeight="1">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="228" ht="300" customHeight="1">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="229" ht="300" customHeight="1">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="230" ht="300" customHeight="1">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="231" ht="300" customHeight="1">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="232" ht="300" customHeight="1">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="233" ht="300" customHeight="1">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="234" ht="300" customHeight="1">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="235" ht="300" customHeight="1">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="236" ht="300" customHeight="1">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="237" ht="300" customHeight="1">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="238" ht="300" customHeight="1">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="239" ht="300" customHeight="1">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="240" ht="300" customHeight="1">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="241" ht="300" customHeight="1">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="242" ht="300" customHeight="1">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="243" ht="300" customHeight="1">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="244" ht="300" customHeight="1">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="245" ht="300" customHeight="1">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="246" ht="300" customHeight="1">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="247" ht="300" customHeight="1">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="248" ht="300" customHeight="1">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="249" ht="300" customHeight="1">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="250" ht="300" customHeight="1">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="251" ht="300" customHeight="1">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="252" ht="300" customHeight="1">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="253" ht="300" customHeight="1">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="254" ht="300" customHeight="1">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="255" ht="300" customHeight="1">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="256" ht="300" customHeight="1">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>01:51AM</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>